--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Chad-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Chad-Itgb1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.229954</v>
+        <v>0.04253433333333333</v>
       </c>
       <c r="H2">
-        <v>0.6898620000000001</v>
+        <v>0.127603</v>
       </c>
       <c r="I2">
-        <v>0.1382053589530512</v>
+        <v>0.01491315744324368</v>
       </c>
       <c r="J2">
-        <v>0.1382053589530513</v>
+        <v>0.01491315744324368</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>37.64622587534134</v>
+        <v>6.783530191548445</v>
       </c>
       <c r="R2">
-        <v>338.816032878072</v>
+        <v>61.051771723936</v>
       </c>
       <c r="S2">
-        <v>0.03806179817969373</v>
+        <v>0.004449020016922796</v>
       </c>
       <c r="T2">
-        <v>0.03806179817969373</v>
+        <v>0.004449020016922796</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.229954</v>
+        <v>0.04253433333333333</v>
       </c>
       <c r="H3">
-        <v>0.6898620000000001</v>
+        <v>0.127603</v>
       </c>
       <c r="I3">
-        <v>0.1382053589530512</v>
+        <v>0.01491315744324368</v>
       </c>
       <c r="J3">
-        <v>0.1382053589530513</v>
+        <v>0.01491315744324368</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>39.680516619138</v>
+        <v>7.339660630897</v>
       </c>
       <c r="R3">
-        <v>357.124649572242</v>
+        <v>66.05694567807299</v>
       </c>
       <c r="S3">
-        <v>0.04011854522216218</v>
+        <v>0.004813761587582337</v>
       </c>
       <c r="T3">
-        <v>0.04011854522216218</v>
+        <v>0.004813761587582336</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.229954</v>
+        <v>0.04253433333333333</v>
       </c>
       <c r="H4">
-        <v>0.6898620000000001</v>
+        <v>0.127603</v>
       </c>
       <c r="I4">
-        <v>0.1382053589530512</v>
+        <v>0.01491315744324368</v>
       </c>
       <c r="J4">
-        <v>0.1382053589530513</v>
+        <v>0.01491315744324368</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>25.63714934110734</v>
+        <v>3.164031468727889</v>
       </c>
       <c r="R4">
-        <v>230.734344069966</v>
+        <v>28.476283218551</v>
       </c>
       <c r="S4">
-        <v>0.0259201548477945</v>
+        <v>0.002075149507859824</v>
       </c>
       <c r="T4">
-        <v>0.0259201548477945</v>
+        <v>0.002075149507859824</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.229954</v>
+        <v>0.04253433333333333</v>
       </c>
       <c r="H5">
-        <v>0.6898620000000001</v>
+        <v>0.127603</v>
       </c>
       <c r="I5">
-        <v>0.1382053589530512</v>
+        <v>0.01491315744324368</v>
       </c>
       <c r="J5">
-        <v>0.1382053589530513</v>
+        <v>0.01491315744324368</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>13.73615578595333</v>
+        <v>2.484626677592111</v>
       </c>
       <c r="R5">
-        <v>123.62540207358</v>
+        <v>22.361640098329</v>
       </c>
       <c r="S5">
-        <v>0.01388778761039742</v>
+        <v>0.001629557695042027</v>
       </c>
       <c r="T5">
-        <v>0.01388778761039742</v>
+        <v>0.001629557695042027</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.229954</v>
+        <v>0.04253433333333333</v>
       </c>
       <c r="H6">
-        <v>0.6898620000000001</v>
+        <v>0.127603</v>
       </c>
       <c r="I6">
-        <v>0.1382053589530512</v>
+        <v>0.01491315744324368</v>
       </c>
       <c r="J6">
-        <v>0.1382053589530513</v>
+        <v>0.01491315744324368</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>19.99633586947933</v>
+        <v>2.966608800082667</v>
       </c>
       <c r="R6">
-        <v>179.967022825314</v>
+        <v>26.699479200744</v>
       </c>
       <c r="S6">
-        <v>0.02021707309300344</v>
+        <v>0.001945668635836696</v>
       </c>
       <c r="T6">
-        <v>0.02021707309300344</v>
+        <v>0.001945668635836696</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.436426</v>
       </c>
       <c r="I7">
-        <v>0.4881079547685578</v>
+        <v>0.2847488267267417</v>
       </c>
       <c r="J7">
-        <v>0.4881079547685578</v>
+        <v>0.2847488267267417</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>132.957379192584</v>
+        <v>129.523360191168</v>
       </c>
       <c r="R7">
-        <v>1196.616412733256</v>
+        <v>1165.710241720512</v>
       </c>
       <c r="S7">
-        <v>0.1344250802214914</v>
+        <v>0.0849486927717306</v>
       </c>
       <c r="T7">
-        <v>0.1344250802214913</v>
+        <v>0.0849486927717306</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.436426</v>
       </c>
       <c r="I8">
-        <v>0.4881079547685578</v>
+        <v>0.2847488267267417</v>
       </c>
       <c r="J8">
-        <v>0.4881079547685578</v>
+        <v>0.2847488267267417</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>140.142002870574</v>
@@ -948,10 +948,10 @@
         <v>1261.278025835166</v>
       </c>
       <c r="S8">
-        <v>0.1416890141237693</v>
+        <v>0.0919129949122425</v>
       </c>
       <c r="T8">
-        <v>0.1416890141237692</v>
+        <v>0.0919129949122425</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>2.436426</v>
       </c>
       <c r="I9">
-        <v>0.4881079547685578</v>
+        <v>0.2847488267267417</v>
       </c>
       <c r="J9">
-        <v>0.4881079547685578</v>
+        <v>0.2847488267267417</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>90.544220758002</v>
+        <v>60.413380055538</v>
       </c>
       <c r="R9">
-        <v>814.897986822018</v>
+        <v>543.720420499842</v>
       </c>
       <c r="S9">
-        <v>0.09154372786904127</v>
+        <v>0.03962248704839916</v>
       </c>
       <c r="T9">
-        <v>0.09154372786904127</v>
+        <v>0.03962248704839917</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>2.436426</v>
       </c>
       <c r="I10">
-        <v>0.4881079547685578</v>
+        <v>0.2847488267267417</v>
       </c>
       <c r="J10">
-        <v>0.4881079547685578</v>
+        <v>0.2847488267267417</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>48.51278530626</v>
+        <v>47.440961713902</v>
       </c>
       <c r="R10">
-        <v>436.61506775634</v>
+        <v>426.968655425118</v>
       </c>
       <c r="S10">
-        <v>0.04904831229499543</v>
+        <v>0.03111444665643022</v>
       </c>
       <c r="T10">
-        <v>0.04904831229499542</v>
+        <v>0.03111444665643023</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>2.436426</v>
       </c>
       <c r="I11">
-        <v>0.4881079547685578</v>
+        <v>0.2847488267267417</v>
       </c>
       <c r="J11">
-        <v>0.4881079547685578</v>
+        <v>0.2847488267267417</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>70.622229688158</v>
+        <v>56.643831354672</v>
       </c>
       <c r="R11">
-        <v>635.600067193422</v>
+        <v>509.794482192048</v>
       </c>
       <c r="S11">
-        <v>0.07140182025926053</v>
+        <v>0.03715020533793921</v>
       </c>
       <c r="T11">
-        <v>0.07140182025926052</v>
+        <v>0.03715020533793922</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.118989</v>
+        <v>1.236598666666667</v>
       </c>
       <c r="H12">
-        <v>0.356967</v>
+        <v>3.709796</v>
       </c>
       <c r="I12">
-        <v>0.07151394390384432</v>
+        <v>0.4335695228977033</v>
       </c>
       <c r="J12">
-        <v>0.07151394390384432</v>
+        <v>0.4335695228977032</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>19.479925422828</v>
+        <v>197.2172532815502</v>
       </c>
       <c r="R12">
-        <v>175.319328805452</v>
+        <v>1774.955279533952</v>
       </c>
       <c r="S12">
-        <v>0.0196949620515563</v>
+        <v>0.1293461490928906</v>
       </c>
       <c r="T12">
-        <v>0.01969496205155629</v>
+        <v>0.1293461490928906</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.118989</v>
+        <v>1.236598666666667</v>
       </c>
       <c r="H13">
-        <v>0.356967</v>
+        <v>3.709796</v>
       </c>
       <c r="I13">
-        <v>0.07151394390384432</v>
+        <v>0.4335695228977033</v>
       </c>
       <c r="J13">
-        <v>0.07151394390384432</v>
+        <v>0.4335695228977032</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>20.532562999533</v>
+        <v>213.385607312204</v>
       </c>
       <c r="R13">
-        <v>184.793066995797</v>
+        <v>1920.470465809836</v>
       </c>
       <c r="S13">
-        <v>0.02075921957191376</v>
+        <v>0.1399502635719113</v>
       </c>
       <c r="T13">
-        <v>0.02075921957191375</v>
+        <v>0.1399502635719113</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.118989</v>
+        <v>1.236598666666667</v>
       </c>
       <c r="H14">
-        <v>0.356967</v>
+        <v>3.709796</v>
       </c>
       <c r="I14">
-        <v>0.07151394390384432</v>
+        <v>0.4335695228977033</v>
       </c>
       <c r="J14">
-        <v>0.07151394390384432</v>
+        <v>0.4335695228977032</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>13.265865185859</v>
+        <v>91.98773764379243</v>
       </c>
       <c r="R14">
-        <v>119.392786672731</v>
+        <v>827.889638794132</v>
       </c>
       <c r="S14">
-        <v>0.01341230552712377</v>
+        <v>0.06033072375775132</v>
       </c>
       <c r="T14">
-        <v>0.01341230552712377</v>
+        <v>0.06033072375775133</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.118989</v>
+        <v>1.236598666666667</v>
       </c>
       <c r="H15">
-        <v>0.356967</v>
+        <v>3.709796</v>
       </c>
       <c r="I15">
-        <v>0.07151394390384432</v>
+        <v>0.4335695228977033</v>
       </c>
       <c r="J15">
-        <v>0.07151394390384432</v>
+        <v>0.4335695228977032</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>7.10773215867</v>
+        <v>72.23543419844755</v>
       </c>
       <c r="R15">
-        <v>63.96958942803</v>
+        <v>650.118907786028</v>
       </c>
       <c r="S15">
-        <v>0.007186193586428496</v>
+        <v>0.04737605400214832</v>
       </c>
       <c r="T15">
-        <v>0.007186193586428495</v>
+        <v>0.04737605400214832</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.118989</v>
+        <v>1.236598666666667</v>
       </c>
       <c r="H16">
-        <v>0.356967</v>
+        <v>3.709796</v>
       </c>
       <c r="I16">
-        <v>0.07151394390384432</v>
+        <v>0.4335695228977033</v>
       </c>
       <c r="J16">
-        <v>0.07151394390384432</v>
+        <v>0.4335695228977032</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>10.347043359861</v>
+        <v>86.24807771064533</v>
       </c>
       <c r="R16">
-        <v>93.12339023874901</v>
+        <v>776.232699395808</v>
       </c>
       <c r="S16">
-        <v>0.010461263166822</v>
+        <v>0.05656633247300166</v>
       </c>
       <c r="T16">
-        <v>0.010461263166822</v>
+        <v>0.05656633247300166</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1292056666666667</v>
+        <v>0.03742733333333333</v>
       </c>
       <c r="H17">
-        <v>0.387617</v>
+        <v>0.112282</v>
       </c>
       <c r="I17">
-        <v>0.07765429407809803</v>
+        <v>0.01312256878006228</v>
       </c>
       <c r="J17">
-        <v>0.07765429407809803</v>
+        <v>0.01312256878006228</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>21.15251620631689</v>
+        <v>5.969047255687111</v>
       </c>
       <c r="R17">
-        <v>190.372645856852</v>
+        <v>53.72142530118401</v>
       </c>
       <c r="S17">
-        <v>0.02138601636996724</v>
+        <v>0.003914836371716381</v>
       </c>
       <c r="T17">
-        <v>0.02138601636996724</v>
+        <v>0.003914836371716381</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1292056666666667</v>
+        <v>0.03742733333333333</v>
       </c>
       <c r="H18">
-        <v>0.387617</v>
+        <v>0.112282</v>
       </c>
       <c r="I18">
-        <v>0.07765429407809803</v>
+        <v>0.01312256878006228</v>
       </c>
       <c r="J18">
-        <v>0.07765429407809803</v>
+        <v>0.01312256878006228</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>22.295535643883</v>
+        <v>6.458404386718</v>
       </c>
       <c r="R18">
-        <v>200.659820794947</v>
+        <v>58.125639480462</v>
       </c>
       <c r="S18">
-        <v>0.02254165346602485</v>
+        <v>0.00423578425724254</v>
       </c>
       <c r="T18">
-        <v>0.02254165346602485</v>
+        <v>0.00423578425724254</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1292056666666667</v>
+        <v>0.03742733333333333</v>
       </c>
       <c r="H19">
-        <v>0.387617</v>
+        <v>0.112282</v>
       </c>
       <c r="I19">
-        <v>0.07765429407809803</v>
+        <v>0.01312256878006228</v>
       </c>
       <c r="J19">
-        <v>0.07765429407809803</v>
+        <v>0.01312256878006228</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>14.40490259813122</v>
+        <v>2.784133455888222</v>
       </c>
       <c r="R19">
-        <v>129.644123383181</v>
+        <v>25.057201102994</v>
       </c>
       <c r="S19">
-        <v>0.01456391664077389</v>
+        <v>0.001825991058529319</v>
       </c>
       <c r="T19">
-        <v>0.01456391664077389</v>
+        <v>0.00182599105852932</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.1292056666666667</v>
+        <v>0.03742733333333333</v>
       </c>
       <c r="H20">
-        <v>0.387617</v>
+        <v>0.112282</v>
       </c>
       <c r="I20">
-        <v>0.07765429407809803</v>
+        <v>0.01312256878006228</v>
       </c>
       <c r="J20">
-        <v>0.07765429407809803</v>
+        <v>0.01312256878006228</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>7.718018237392221</v>
+        <v>2.186303242191778</v>
       </c>
       <c r="R20">
-        <v>69.46216413652999</v>
+        <v>19.676729179726</v>
       </c>
       <c r="S20">
-        <v>0.00780321654211917</v>
+        <v>0.001433900434274342</v>
       </c>
       <c r="T20">
-        <v>0.007803216542119169</v>
+        <v>0.001433900434274343</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.1292056666666667</v>
+        <v>0.03742733333333333</v>
       </c>
       <c r="H21">
-        <v>0.387617</v>
+        <v>0.112282</v>
       </c>
       <c r="I21">
-        <v>0.07765429407809803</v>
+        <v>0.01312256878006228</v>
       </c>
       <c r="J21">
-        <v>0.07765429407809803</v>
+        <v>0.01312256878006228</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>11.23546407936655</v>
+        <v>2.610414874970667</v>
       </c>
       <c r="R21">
-        <v>101.119176714299</v>
+        <v>23.493733874736</v>
       </c>
       <c r="S21">
-        <v>0.01135949105921288</v>
+        <v>0.001712056658299694</v>
       </c>
       <c r="T21">
-        <v>0.01135949105921287</v>
+        <v>0.001712056658299694</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.3735666666666667</v>
+        <v>0.7234323333333333</v>
       </c>
       <c r="H22">
-        <v>1.1207</v>
+        <v>2.170297</v>
       </c>
       <c r="I22">
-        <v>0.2245184482964485</v>
+        <v>0.253645924152249</v>
       </c>
       <c r="J22">
-        <v>0.2245184482964485</v>
+        <v>0.253645924152249</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N22">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O22">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P22">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q22">
-        <v>61.15734065435555</v>
+        <v>115.3756198845405</v>
       </c>
       <c r="R22">
-        <v>550.4160658892</v>
+        <v>1038.380578960864</v>
       </c>
       <c r="S22">
-        <v>0.06183244941739472</v>
+        <v>0.07566981023696538</v>
       </c>
       <c r="T22">
-        <v>0.06183244941739471</v>
+        <v>0.07566981023696538</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.3735666666666667</v>
+        <v>0.7234323333333333</v>
       </c>
       <c r="H23">
-        <v>1.1207</v>
+        <v>2.170297</v>
       </c>
       <c r="I23">
-        <v>0.2245184482964485</v>
+        <v>0.253645924152249</v>
       </c>
       <c r="J23">
-        <v>0.2245184482964485</v>
+        <v>0.253645924152249</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q23">
-        <v>64.4621025293</v>
+        <v>124.834396121203</v>
       </c>
       <c r="R23">
-        <v>580.1589227636999</v>
+        <v>1123.509565090827</v>
       </c>
       <c r="S23">
-        <v>0.06517369217390892</v>
+        <v>0.08187340683404921</v>
       </c>
       <c r="T23">
-        <v>0.06517369217390892</v>
+        <v>0.08187340683404921</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.3735666666666667</v>
+        <v>0.7234323333333333</v>
       </c>
       <c r="H24">
-        <v>1.1207</v>
+        <v>2.170297</v>
       </c>
       <c r="I24">
-        <v>0.2245184482964485</v>
+        <v>0.253645924152249</v>
       </c>
       <c r="J24">
-        <v>0.2245184482964485</v>
+        <v>0.253645924152249</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N24">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q24">
-        <v>41.64826192278888</v>
+        <v>53.81447148174988</v>
       </c>
       <c r="R24">
-        <v>374.8343573051</v>
+        <v>484.330243335749</v>
       </c>
       <c r="S24">
-        <v>0.04210801223711886</v>
+        <v>0.0352945522555085</v>
       </c>
       <c r="T24">
-        <v>0.04210801223711887</v>
+        <v>0.03529455225550851</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.3735666666666667</v>
+        <v>0.7234323333333333</v>
       </c>
       <c r="H25">
-        <v>1.1207</v>
+        <v>2.170297</v>
       </c>
       <c r="I25">
-        <v>0.2245184482964485</v>
+        <v>0.253645924152249</v>
       </c>
       <c r="J25">
-        <v>0.2245184482964485</v>
+        <v>0.253645924152249</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N25">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q25">
-        <v>22.31476699588888</v>
+        <v>42.25902074793011</v>
       </c>
       <c r="R25">
-        <v>200.832902963</v>
+        <v>380.331186731371</v>
       </c>
       <c r="S25">
-        <v>0.02256109711068646</v>
+        <v>0.02771583878808983</v>
       </c>
       <c r="T25">
-        <v>0.02256109711068646</v>
+        <v>0.02771583878808983</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.3735666666666667</v>
+        <v>0.7234323333333333</v>
       </c>
       <c r="H26">
-        <v>1.1207</v>
+        <v>2.170297</v>
       </c>
       <c r="I26">
-        <v>0.2245184482964485</v>
+        <v>0.253645924152249</v>
       </c>
       <c r="J26">
-        <v>0.2245184482964485</v>
+        <v>0.253645924152249</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N26">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O26">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P26">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q26">
-        <v>32.48460360032222</v>
+        <v>50.45666778205067</v>
       </c>
       <c r="R26">
-        <v>292.3614324029</v>
+        <v>454.110010038456</v>
       </c>
       <c r="S26">
-        <v>0.03284319735733951</v>
+        <v>0.03309231603763605</v>
       </c>
       <c r="T26">
-        <v>0.03284319735733951</v>
+        <v>0.03309231603763606</v>
       </c>
     </row>
   </sheetData>
